--- a/dragon-arms/checklist.xlsx
+++ b/dragon-arms/checklist.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/dragon-arms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{078D784D-C3CC-B64F-93AF-CC9A3CD500EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2626CFF9-F75B-F246-96BD-96D7302CE2F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{80F9DAD0-F779-9944-A1AD-2A4868312EA0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -99,9 +99,6 @@
     <t>Battlefield Canopus</t>
   </si>
   <si>
-    <t xml:space="preserve"> battlefield-canopus.jpg</t>
-  </si>
-  <si>
     <t>replay</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
   </si>
   <si>
     <t>knight-in-the-sky.jpg</t>
+  </si>
+  <si>
+    <t>battlefield-canopus.jpg</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -570,10 +570,10 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
         <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -581,16 +581,16 @@
         <v>2013</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
